--- a/pVal_corr.xlsx
+++ b/pVal_corr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ibrahimtoronka/Desktop/Spring 22/BME 580/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B0BF05-07AB-5342-A87E-F73222876D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAE1D63-E721-9F4C-A9D1-CF33332CE06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{4D1CBD8A-0992-6D4C-A4FB-17D5C55FC883}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="445">
   <si>
     <t>F3_F7_Cor</t>
   </si>
@@ -402,9 +402,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>P-Value</t>
-  </si>
-  <si>
     <t>Corrected</t>
   </si>
   <si>
@@ -456,9 +453,6 @@
     <t>O2_avg  0.0230927290</t>
   </si>
   <si>
-    <t>Regression Coefficients</t>
-  </si>
-  <si>
     <t>F7_min  0.0003469362</t>
   </si>
   <si>
@@ -1369,6 +1363,15 @@
   </si>
   <si>
     <t>F4_avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discriminant </t>
+  </si>
+  <si>
+    <t>P-Value (0.2 threshold)</t>
+  </si>
+  <si>
+    <t>P-Value (0.05 threshold)</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1450,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1788,30 +1811,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA914178-6EC5-7844-A9AD-FD9441A27B24}">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>120</v>
       </c>
       <c r="C1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1824,8 +1851,11 @@
       <c r="D2">
         <v>12.571862145000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F2" s="2">
+        <v>0.84199603505074205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1838,8 +1868,11 @@
       <c r="D3">
         <v>17.044699203</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F3" s="2">
+        <v>0.81351148996102596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1852,8 +1885,11 @@
       <c r="D4">
         <v>14.1389391</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4" s="2">
+        <v>0.83368033890437898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1866,8 +1902,11 @@
       <c r="D5">
         <v>23.226518897999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5" s="2">
+        <v>0.31387187697364499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1880,8 +1919,11 @@
       <c r="D6">
         <v>23.247039132000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6" s="2">
+        <v>0.64575108678003201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1894,8 +1936,11 @@
       <c r="D7">
         <v>10.278742448999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F7" s="2">
+        <v>0.10596641678681799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1908,8 +1953,11 @@
       <c r="D8">
         <v>21.257744359</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F8" s="2">
+        <v>0.69951458912178499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1922,8 +1970,11 @@
       <c r="D9">
         <v>19.250556467999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F9" s="2">
+        <v>0.75270518091237604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1936,8 +1987,11 @@
       <c r="D10">
         <v>24.576396389999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F10" s="2">
+        <v>0.351091376526105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1950,8 +2004,11 @@
       <c r="D11">
         <v>7.4346054300000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F11" s="2">
+        <v>7.0805766318300906E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1964,8 +2021,11 @@
       <c r="D12">
         <v>2.9118062669999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F12" s="2">
+        <v>0.99123110647841906</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1978,8 +2038,11 @@
       <c r="D13">
         <v>25.190339118000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F13" s="2">
+        <v>0.44210443828395302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1992,8 +2055,11 @@
       <c r="D14">
         <v>26.288109606999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F14" s="2">
+        <v>0.55932148076735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2006,8 +2072,11 @@
       <c r="D15">
         <v>21.363660009</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F15" s="2">
+        <v>0.26374888876164498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2020,8 +2089,11 @@
       <c r="D16">
         <v>11.032435660999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <v>0.85777497128259905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2034,8 +2106,11 @@
       <c r="D17">
         <v>24.103806208000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <v>0.37662197225834299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2048,8 +2123,11 @@
       <c r="D18">
         <v>13.338885424000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18" s="2">
+        <v>0.83812414345709396</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2062,8 +2140,11 @@
       <c r="D19">
         <v>21.967740899999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19" s="2">
+        <v>0.29290321180228301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2076,8 +2157,11 @@
       <c r="D20">
         <v>25.420430419999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20" s="2">
+        <v>0.59040419546351897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2090,8 +2174,11 @@
       <c r="D21">
         <v>6.6593695420000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21" s="2">
+        <v>0.95559782202594001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2104,8 +2191,11 @@
       <c r="D22">
         <v>23.707523903999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22" s="2">
+        <v>0.62422512179104095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2118,8 +2208,11 @@
       <c r="D23">
         <v>24.677220036000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23" s="2">
+        <v>0.39801967756756801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2132,8 +2225,11 @@
       <c r="D24">
         <v>18.019263949999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24" s="2">
+        <v>0.209526325090517</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2146,8 +2242,11 @@
       <c r="D25">
         <v>23.247039132000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25" s="2">
+        <v>0.64704453669605699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2160,8 +2259,11 @@
       <c r="D26">
         <v>21.67211872</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26" s="2">
+        <v>0.27100893177435098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2174,8 +2276,11 @@
       <c r="D27">
         <v>24.630005807</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F27" s="2">
+        <v>0.40820075016150198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2188,8 +2293,11 @@
       <c r="D28">
         <v>24.630725687000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28" s="2">
+        <v>0.604164713840326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2202,8 +2310,11 @@
       <c r="D29">
         <v>3.8581392299999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29" s="2">
+        <v>3.5073993105911201E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2216,8 +2327,11 @@
       <c r="D30">
         <v>9.9326158000000007</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30" s="2">
+        <v>9.9326158264832098E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2230,8 +2344,11 @@
       <c r="D31">
         <v>24.873554272</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31" s="2">
+        <v>0.42885438423723399</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2244,8 +2361,11 @@
       <c r="D32">
         <v>25.438961807999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F32" s="2">
+        <v>0.49063327747661001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2258,8 +2378,11 @@
       <c r="D33">
         <v>5.7335869319999997</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33" s="2">
+        <v>0.95669507655788999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2272,8 +2395,11 @@
       <c r="D34">
         <v>0.57563410999999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F34" s="2">
+        <v>5.0055142098726002E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2286,8 +2412,11 @@
       <c r="D35">
         <v>11.453653056</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35" s="2">
+        <v>0.11930888611951899</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2300,8 +2429,11 @@
       <c r="D36">
         <v>22.414546506000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F36" s="2">
+        <v>0.679228681649655</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2314,8 +2446,11 @@
       <c r="D37">
         <v>21.417060287999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F37" s="2">
+        <v>0.276124709086222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2328,8 +2463,11 @@
       <c r="D38">
         <v>20.904851273999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F38" s="2">
+        <v>0.251865678310144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2342,8 +2480,11 @@
       <c r="D39">
         <v>14.866995116</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F39" s="2">
+        <v>0.161597773404657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2356,8 +2497,11 @@
       <c r="D40">
         <v>25.474448807999998</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F40" s="2">
+        <v>0.48056851472104201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2370,8 +2514,11 @@
       <c r="D41">
         <v>24.576396389999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F41" s="2">
+        <v>0.35500137408413002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2384,8 +2531,11 @@
       <c r="D42">
         <v>0.20603154000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F42" s="2">
+        <v>1.7460300660893601E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2398,8 +2548,11 @@
       <c r="D43">
         <v>10.042515746999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F43" s="2">
+        <v>0.101439553360678</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2412,8 +2565,11 @@
       <c r="D44">
         <v>20.904851273999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F44" s="2">
+        <v>0.25188193397436798</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2426,8 +2582,11 @@
       <c r="D45">
         <v>0.51681793200000004</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F45" s="2">
+        <v>4.4553270556275896E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2440,8 +2599,11 @@
       <c r="D46">
         <v>20.169416876</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F46" s="2">
+        <v>0.72515858561533197</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2454,8 +2616,11 @@
       <c r="D47">
         <v>19.016661048</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F47" s="2">
+        <v>0.79355348420532001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2468,8 +2633,11 @@
       <c r="D48">
         <v>15.509282247</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F48" s="2">
+        <v>0.82581109788034801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2482,8 +2650,11 @@
       <c r="D49">
         <v>19.579281821999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F49" s="2">
+        <v>0.74040601822966001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2496,8 +2667,11 @@
       <c r="D50">
         <v>7.9999469550000004</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F50" s="2">
+        <v>0.90649536954855403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2510,8 +2684,11 @@
       <c r="D51">
         <v>22.646558795000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F51" s="2">
+        <v>0.65426319394654697</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2524,8 +2701,11 @@
       <c r="D52">
         <v>11.787944489999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F52" s="2">
+        <v>0.84864889717910197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2538,8 +2718,11 @@
       <c r="D53">
         <v>1.9824622119999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F53" s="2">
+        <v>0.99265010404902598</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2552,8 +2735,11 @@
       <c r="D54">
         <v>19.016661048</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F54" s="2">
+        <v>0.79236087683831802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2566,8 +2752,11 @@
       <c r="D55">
         <v>3.8385311240000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F55" s="2">
+        <v>0.97060208940857096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2580,8 +2769,11 @@
       <c r="D56">
         <v>21.67211872</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F56" s="2">
+        <v>0.27090148423034799</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2594,8 +2786,11 @@
       <c r="D57">
         <v>25.906830029999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F57" s="2">
+        <v>0.57773705489065097</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2608,8 +2803,11 @@
       <c r="D58">
         <v>24.291274058999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F58" s="2">
+        <v>0.62285318053314398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2622,8 +2820,11 @@
       <c r="D59">
         <v>14.953292899999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F59" s="2">
+        <v>0.16432190022833201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2636,8 +2837,11 @@
       <c r="D60">
         <v>24.975138300000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F60" s="2">
+        <v>0.517549045594489</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2650,8 +2854,11 @@
       <c r="D61">
         <v>25.387380385</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F61" s="2">
+        <v>0.59858231573307896</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2664,8 +2871,11 @@
       <c r="D62">
         <v>13.895000172</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F62" s="2">
+        <v>0.14940860377992099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2678,8 +2888,11 @@
       <c r="D63">
         <v>5.8881713160000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F63" s="2">
+        <v>5.5548786495753698E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2692,8 +2905,11 @@
       <c r="D64">
         <v>9.8740274479999997</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F64" s="2">
+        <v>9.7762647919470105E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2706,8 +2922,11 @@
       <c r="D65">
         <v>18.251730131999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F65" s="2">
+        <v>0.81150011258136601</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2720,8 +2939,11 @@
       <c r="D66">
         <v>22.414546506000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F66" s="2">
+        <v>0.67960684881073796</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2734,8 +2956,11 @@
       <c r="D67">
         <v>23.696377128000002</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F67" s="2">
+        <v>0.32911634879151402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2748,8 +2973,11 @@
       <c r="D68">
         <v>9.5375544110000003</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F68" s="2">
+        <v>0.87023467360176399</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2762,8 +2990,11 @@
       <c r="D69">
         <v>24.568073838</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F69" s="2">
+        <v>0.389969426234334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2776,8 +3007,11 @@
       <c r="D70">
         <v>21.417060287999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F70" s="2">
+        <v>0.27457769615121702</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2790,8 +3024,11 @@
       <c r="D71">
         <v>25.190339118000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F71" s="2">
+        <v>0.44193577360618402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2804,8 +3041,11 @@
       <c r="D72">
         <v>26.020131425999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F72" s="2">
+        <v>0.575707333914244</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2818,8 +3058,11 @@
       <c r="D73">
         <v>10.178215614000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F73" s="2">
+        <v>0.103859342572443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2832,8 +3075,11 @@
       <c r="D74">
         <v>16.408421364999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F74" s="2">
+        <v>0.18436428488131901</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2846,8 +3092,11 @@
       <c r="D75">
         <v>25.140457271999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F75" s="2">
+        <v>0.60074940663185705</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2860,8 +3109,11 @@
       <c r="D76">
         <v>17.855059023999999</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F76" s="2">
+        <v>0.20485564492199501</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2874,8 +3126,11 @@
       <c r="D77">
         <v>15.94669041</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F77" s="2">
+        <v>0.17718544856627599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2888,8 +3143,11 @@
       <c r="D78">
         <v>8.0238045679999992</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F78" s="2">
+        <v>7.7151966887778006E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2902,8 +3160,11 @@
       <c r="D79">
         <v>3.8581392299999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F79" s="2">
+        <v>3.5234651736166599E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2916,8 +3177,11 @@
       <c r="D80">
         <v>25.022297127000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F80" s="2">
+        <v>0.49815467044084799</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2930,8 +3194,11 @@
       <c r="D81">
         <v>4.783475385</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F81" s="2">
+        <v>0.95963278069144298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2944,8 +3211,11 @@
       <c r="D82">
         <v>4.5400599359999996</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F82" s="2">
+        <v>4.2037592375211201E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2958,8 +3228,11 @@
       <c r="D83">
         <v>3.045841792</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F83" s="2">
+        <v>2.7195015805702102E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2972,8 +3245,11 @@
       <c r="D84">
         <v>16.270229799999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F84" s="2">
+        <v>0.81627801255197796</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2986,8 +3262,11 @@
       <c r="D85">
         <v>25.470131295000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F85" s="2">
+        <v>0.48921080369888198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -3000,8 +3279,11 @@
       <c r="D86">
         <v>13.286918988</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F86" s="2">
+        <v>0.141350201771555</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -3014,8 +3296,11 @@
       <c r="D87">
         <v>23.226518897999998</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F87" s="2">
+        <v>0.31734083146784497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -3028,8 +3313,11 @@
       <c r="D88">
         <v>8.1720000000000002E-4</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F88" s="3">
+        <v>6.8111068875136603E-6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3042,8 +3330,11 @@
       <c r="D89">
         <v>8.7023467399999994</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F89" s="2">
+        <v>0.88888299460291598</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3056,8 +3347,11 @@
       <c r="D90">
         <v>17.853002486000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F90" s="2">
+        <v>0.81165234311802104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3070,8 +3364,11 @@
       <c r="D91">
         <v>10.293299652</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F91" s="2">
+        <v>0.86705040052428495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3084,8 +3381,11 @@
       <c r="D92">
         <v>25.719475044999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F92" s="2">
+        <v>0.47174905186548899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3098,8 +3398,11 @@
       <c r="D93">
         <v>20.98543767</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F93" s="2">
+        <v>0.70255822885358499</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3112,8 +3415,11 @@
       <c r="D94">
         <v>24.677220036000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F94" s="2">
+        <v>0.40377058745594702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3126,8 +3432,11 @@
       <c r="D95">
         <v>24.495094806000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F95" s="2">
+        <v>0.35500137408413002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3140,8 +3449,11 @@
       <c r="D96">
         <v>24.140093432</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F96" s="2">
+        <v>0.35500137408413002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3154,8 +3466,11 @@
       <c r="D97">
         <v>24.975138300000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F97" s="2">
+        <v>0.50969669973546405</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3168,8 +3483,11 @@
       <c r="D98">
         <v>24.291274058999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F98" s="2">
+        <v>0.62388220832491303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3182,8 +3500,11 @@
       <c r="D99">
         <v>23.88344292</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F99" s="2">
+        <v>0.33638652026369698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3196,8 +3517,11 @@
       <c r="D100">
         <v>9.1958188849999996</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F100" s="2">
+        <v>8.9279795496081601E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3210,8 +3534,11 @@
       <c r="D101">
         <v>21.747419168</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F101" s="2">
+        <v>0.68573368882702301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3224,8 +3551,11 @@
       <c r="D102">
         <v>1.845760434</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F102" s="2">
+        <v>1.61908805159891E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3238,8 +3568,11 @@
       <c r="D103">
         <v>9.6842653559999992</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F103" s="2">
+        <v>9.4943777639201005E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3252,8 +3585,11 @@
       <c r="D104">
         <v>5.2256837620000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F104" s="2">
+        <v>4.8838165746206398E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3266,8 +3602,11 @@
       <c r="D105">
         <v>0.15785576100000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F105" s="2">
+        <v>1.3265185324400301E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3280,8 +3619,11 @@
       <c r="D106">
         <v>7.2519629600000002</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F106" s="2">
+        <v>0.95133850593032099</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3294,8 +3636,11 @@
       <c r="D107">
         <v>21.693971164000001</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F107" s="2">
+        <v>0.28544698915593197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3308,8 +3653,11 @@
       <c r="D108">
         <v>23.785092058</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F108" s="2">
+        <v>0.35500137408413002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3322,8 +3670,11 @@
       <c r="D109">
         <v>23.430090684</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F109" s="2">
+        <v>0.35500137408413002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3336,8 +3687,11 @@
       <c r="D110">
         <v>26.288109606999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F110" s="2">
+        <v>0.56565503063648703</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3350,8 +3704,11 @@
       <c r="D111">
         <v>20.374188641</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F111" s="2">
+        <v>0.72033631701977097</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3364,8 +3721,11 @@
       <c r="D112">
         <v>24.602496376000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F112" s="2">
+        <v>0.41699146353361899</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3378,8 +3738,11 @@
       <c r="D113">
         <v>17.855059023999999</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F113" s="2">
+        <v>0.202898397867291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3392,8 +3755,11 @@
       <c r="D114">
         <v>3.1034236919999998</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F114" s="2">
+        <v>2.79587719211415E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3406,8 +3772,11 @@
       <c r="D115">
         <v>25.719475044999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F115" s="2">
+        <v>0.46762681895905001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3420,8 +3789,11 @@
       <c r="D116">
         <v>14.864599763999999</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F116" s="2">
+        <v>0.83170229986573696</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3434,8 +3806,11 @@
       <c r="D117">
         <v>0.46149948000000002</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F117" s="2">
+        <v>3.9444400587183596E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3448,8 +3823,11 @@
       <c r="D118">
         <v>18.879416299999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F118" s="2">
+        <v>0.22211077992426101</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3462,8 +3840,11 @@
       <c r="D119">
         <v>13.067789695</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F119" s="2">
+        <v>0.13755568075778701</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3476,8 +3857,11 @@
       <c r="D120">
         <v>20.184792263999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F120" s="2">
+        <v>0.24029514574067901</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3490,16 +3874,29 @@
       <c r="D121">
         <v>2.3968357679999999</v>
       </c>
+      <c r="F121" s="2">
+        <v>2.1210936109967101E-2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C121">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D121">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F121">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D121">
+  <conditionalFormatting sqref="F1:F1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
-      <formula>0.05</formula>
+      <formula>0.2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3511,8 +3908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D415D3D0-8722-9B49-ACAF-36AD7F91A450}">
   <dimension ref="A1:M162"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3527,308 +3924,308 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>442</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="5"/>
@@ -3851,304 +4248,304 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L24" s="1"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L27" s="1"/>
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="5"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L29" s="1"/>
       <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="5"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="5"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L32" s="1"/>
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="5"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="5"/>
@@ -4662,7 +5059,7 @@
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4674,7 +5071,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B1" s="3">
         <v>-9.3283630000000006E-2</v>
@@ -4686,7 +5083,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B2" s="3">
         <v>-7.1292030000000006E-2</v>
@@ -4698,7 +5095,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B3" s="3">
         <v>6.101343E-2</v>
@@ -4710,7 +5107,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B4" s="3">
         <v>-5.8848570000000003E-2</v>
@@ -4722,7 +5119,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B5" s="3">
         <v>4.2911009999999999E-2</v>
@@ -4734,7 +5131,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B6" s="3">
         <v>-4.2376369999999997E-2</v>
@@ -4746,7 +5143,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B7" s="3">
         <v>3.2992609999999999E-2</v>
@@ -4758,7 +5155,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B8" s="3">
         <v>-2.9895270000000002E-2</v>
@@ -4770,7 +5167,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B9" s="3">
         <v>2.751381E-2</v>
@@ -4782,7 +5179,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B10" s="3">
         <v>-2.6086850000000002E-2</v>
@@ -4794,7 +5191,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B11" s="3">
         <v>2.28709E-2</v>
@@ -4806,7 +5203,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B12" s="3">
         <v>-1.8540979999999999E-2</v>
@@ -4818,7 +5215,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B13" s="3">
         <v>-1.6836500000000001E-2</v>
@@ -4830,7 +5227,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B14" s="3">
         <v>1.6269809999999999E-2</v>
@@ -4842,7 +5239,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B15" s="3">
         <v>1.5342949999999999E-2</v>
@@ -4854,7 +5251,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B16" s="3">
         <v>1.5240739999999999E-2</v>
@@ -4866,7 +5263,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B17" s="3">
         <v>-1.4616550000000001E-2</v>
@@ -4878,7 +5275,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B18" s="3">
         <v>1.415542E-2</v>
@@ -4890,7 +5287,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B19" s="3">
         <v>-1.262077E-2</v>
@@ -4902,7 +5299,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B20" s="3">
         <v>-1.133432E-2</v>
@@ -4914,7 +5311,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B21" s="3">
         <v>-1.098536E-2</v>
@@ -4926,7 +5323,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B22" s="3">
         <v>-1.0357E-2</v>
@@ -4938,7 +5335,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B23" s="3">
         <v>1.0281190000000001E-2</v>
@@ -4950,7 +5347,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B24" s="3">
         <v>9.8843850000000007E-3</v>
@@ -4962,7 +5359,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B25" s="3">
         <v>9.2023639999999993E-3</v>
@@ -4974,7 +5371,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B26" s="3">
         <v>-8.2021620000000007E-3</v>
@@ -4986,7 +5383,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B27" s="3">
         <v>7.5493690000000002E-3</v>
@@ -4998,7 +5395,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B28" s="3">
         <v>7.2268050000000002E-3</v>
@@ -5010,7 +5407,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B29" s="3">
         <v>7.2255770000000004E-3</v>
@@ -5022,7 +5419,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B30" s="3">
         <v>7.1711609999999997E-3</v>
@@ -5034,7 +5431,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B31" s="3">
         <v>-7.1304699999999999E-3</v>
@@ -5046,7 +5443,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B32" s="3">
         <v>6.7522160000000001E-3</v>
@@ -5058,7 +5455,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B33" s="3">
         <v>6.5893469999999997E-3</v>
@@ -5070,7 +5467,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B34" s="3">
         <v>6.4556320000000002E-3</v>
@@ -5082,7 +5479,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B35" s="3">
         <v>5.5247719999999998E-3</v>
@@ -5094,7 +5491,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B36" s="3">
         <v>5.2979280000000004E-3</v>
@@ -5106,7 +5503,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B37" s="3">
         <v>-5.2793950000000001E-3</v>
@@ -5118,7 +5515,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B38" s="3">
         <v>-5.2485509999999997E-3</v>
@@ -5130,7 +5527,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B39" s="3">
         <v>-4.9526780000000003E-3</v>
@@ -5142,7 +5539,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B40" s="3">
         <v>4.8076220000000001E-3</v>
@@ -5154,7 +5551,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B41" s="3">
         <v>-4.6454019999999999E-3</v>
@@ -5166,7 +5563,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B42" s="3">
         <v>-4.6423239999999998E-3</v>
@@ -5178,7 +5575,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B43" s="3">
         <v>4.6183689999999998E-3</v>
@@ -5190,7 +5587,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B44" s="3">
         <v>4.4229339999999999E-3</v>
@@ -5202,7 +5599,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B45" s="3">
         <v>-4.3640500000000004E-3</v>
@@ -5214,7 +5611,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B46" s="3">
         <v>-4.2220239999999996E-3</v>
@@ -5226,7 +5623,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B47" s="3">
         <v>-4.106551E-3</v>
@@ -5238,7 +5635,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B48" s="3">
         <v>-4.0368340000000004E-3</v>
@@ -5250,7 +5647,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B49" s="3">
         <v>-3.913077E-3</v>
@@ -5262,7 +5659,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B50" s="3">
         <v>3.8552529999999999E-3</v>
@@ -5274,7 +5671,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B51" s="3">
         <v>-3.7016150000000001E-3</v>
@@ -5286,7 +5683,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B52" s="3">
         <v>-3.5164789999999999E-3</v>
@@ -5298,7 +5695,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B53" s="3">
         <v>-3.4818319999999998E-3</v>
@@ -5310,7 +5707,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B54" s="3">
         <v>3.3380800000000002E-3</v>
@@ -5322,7 +5719,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B55" s="3">
         <v>-3.2567780000000001E-3</v>
@@ -5334,7 +5731,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B56" s="3">
         <v>3.120168E-3</v>
@@ -5346,7 +5743,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B57" s="3">
         <v>-3.056769E-3</v>
@@ -5358,7 +5755,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B58" s="3">
         <v>2.8844690000000002E-3</v>
@@ -5370,7 +5767,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B59" s="3">
         <v>2.834703E-3</v>
@@ -5382,7 +5779,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B60" s="3">
         <v>2.832504E-3</v>
@@ -5394,7 +5791,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B61" s="3">
         <v>-2.7510880000000001E-3</v>
@@ -5406,7 +5803,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B62" s="3">
         <v>-2.7482919999999998E-3</v>
@@ -5418,7 +5815,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B63" s="3">
         <v>2.609391E-3</v>
@@ -5430,7 +5827,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B64" s="3">
         <v>2.5557750000000001E-3</v>
@@ -5442,7 +5839,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B65" s="3">
         <v>2.490955E-3</v>
@@ -5454,7 +5851,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B66" s="3">
         <v>2.4471889999999998E-3</v>
@@ -5466,7 +5863,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B67" s="3">
         <v>-2.4195499999999999E-3</v>
@@ -5478,7 +5875,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B68" s="3">
         <v>-2.3298569999999998E-3</v>
@@ -5490,7 +5887,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B69" s="3">
         <v>2.2638710000000002E-3</v>
@@ -5502,7 +5899,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B70" s="3">
         <v>-2.223526E-3</v>
@@ -5514,7 +5911,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B71" s="3">
         <v>2.165134E-3</v>
@@ -5526,7 +5923,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B72" s="3">
         <v>2.1313640000000002E-3</v>
@@ -5538,7 +5935,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B73" s="3">
         <v>-2.0986070000000002E-3</v>
@@ -5550,7 +5947,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B74" s="3">
         <v>2.0438069999999999E-3</v>
@@ -5562,7 +5959,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B75" s="3">
         <v>2.0031580000000001E-3</v>
@@ -5574,7 +5971,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B76" s="3">
         <v>-1.8716430000000001E-3</v>
@@ -5586,7 +5983,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B77" s="3">
         <v>-1.8673629999999999E-3</v>
@@ -5598,7 +5995,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B78" s="3">
         <v>1.812798E-3</v>
@@ -5610,7 +6007,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B79" s="3">
         <v>1.8005880000000001E-3</v>
@@ -5622,7 +6019,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B80" s="3">
         <v>-1.7426290000000001E-3</v>
@@ -5634,7 +6031,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B81" s="3">
         <v>1.7075409999999999E-3</v>
@@ -5646,7 +6043,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B82" s="3">
         <v>-1.6949490000000001E-3</v>
@@ -5658,7 +6055,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B83" s="3">
         <v>-1.676697E-3</v>
@@ -5670,7 +6067,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B84" s="3">
         <v>-1.6733480000000001E-3</v>
@@ -5682,7 +6079,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B85" s="3">
         <v>1.6716070000000001E-3</v>
@@ -5694,7 +6091,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B86" s="3">
         <v>1.64431E-3</v>
@@ -5706,7 +6103,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B87" s="3">
         <v>1.6162940000000001E-3</v>
@@ -5718,7 +6115,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B88" s="3">
         <v>1.476411E-3</v>
@@ -5730,7 +6127,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B89" s="3">
         <v>1.468806E-3</v>
@@ -5742,7 +6139,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B90" s="3">
         <v>-1.441325E-3</v>
@@ -5754,7 +6151,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B91" s="3">
         <v>1.4123440000000001E-3</v>
@@ -5766,7 +6163,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B92" s="3">
         <v>-1.401558E-3</v>
@@ -5778,7 +6175,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B93" s="3">
         <v>-1.39237E-3</v>
@@ -5790,7 +6187,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B94" s="3">
         <v>-1.3774130000000001E-3</v>
@@ -5802,7 +6199,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B95" s="3">
         <v>1.3757680000000001E-3</v>
@@ -5814,7 +6211,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B96" s="3">
         <v>1.36684E-3</v>
@@ -5826,7 +6223,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B97" s="3">
         <v>-1.3585349999999999E-3</v>
@@ -5838,7 +6235,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B98" s="3">
         <v>1.282266E-3</v>
@@ -5850,7 +6247,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B99" s="3">
         <v>1.277231E-3</v>
@@ -5862,7 +6259,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B100" s="3">
         <v>1.203282E-3</v>
@@ -5874,7 +6271,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B101" s="3">
         <v>1.1514380000000001E-3</v>
@@ -5886,7 +6283,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B102" s="3">
         <v>-1.1287630000000001E-3</v>
@@ -5898,7 +6295,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B103" s="3">
         <v>-1.116445E-3</v>
@@ -5910,7 +6307,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B104" s="3">
         <v>1.1123730000000001E-3</v>
@@ -5922,7 +6319,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B105" s="3">
         <v>1.019191E-3</v>
@@ -5934,7 +6331,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B106" s="3">
         <v>-9.4964699999999997E-4</v>
@@ -5946,7 +6343,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B107" s="3">
         <v>-9.4044129999999997E-4</v>
@@ -5958,7 +6355,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B108" s="3">
         <v>-9.279151E-4</v>
@@ -5970,7 +6367,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B109" s="3">
         <v>8.9632790000000002E-4</v>
@@ -5982,7 +6379,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B110" s="3">
         <v>-8.6418170000000002E-4</v>
@@ -5994,7 +6391,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B111" s="3">
         <v>8.6182529999999998E-4</v>
@@ -6006,7 +6403,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B112" s="3">
         <v>-8.5383720000000005E-4</v>
@@ -6018,7 +6415,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B113" s="3">
         <v>-8.5266439999999997E-4</v>
@@ -6030,7 +6427,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B114" s="3">
         <v>7.9843920000000003E-4</v>
@@ -6042,7 +6439,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B115" s="3">
         <v>7.3386450000000004E-4</v>
@@ -6054,7 +6451,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B116" s="3">
         <v>-7.1183080000000005E-4</v>
@@ -6066,7 +6463,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B117" s="3">
         <v>-7.0769159999999997E-4</v>
@@ -6078,7 +6475,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B118" s="3">
         <v>-6.9523160000000003E-4</v>
@@ -6090,7 +6487,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B119" s="3">
         <v>-6.8773680000000005E-4</v>
@@ -6102,7 +6499,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B120" s="3">
         <v>-5.9642129999999997E-4</v>
@@ -6114,7 +6511,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B121" s="3">
         <v>-5.9617329999999997E-4</v>
@@ -6126,7 +6523,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B122" s="3">
         <v>5.8846759999999995E-4</v>
@@ -6138,7 +6535,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B123" s="3">
         <v>5.7475410000000005E-4</v>
@@ -6150,7 +6547,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B124" s="3">
         <v>5.3901619999999998E-4</v>
@@ -6162,7 +6559,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B125" s="3">
         <v>5.3781260000000002E-4</v>
@@ -6174,7 +6571,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B126" s="3">
         <v>4.921188E-4</v>
@@ -6186,7 +6583,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B127" s="3">
         <v>-4.8359310000000002E-4</v>
@@ -6198,7 +6595,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B128" s="3">
         <v>-4.8076210000000001E-4</v>
@@ -6210,7 +6607,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B129" s="3">
         <v>-4.7307849999999999E-4</v>
@@ -6222,7 +6619,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B130" s="3">
         <v>4.6635459999999998E-4</v>
@@ -6234,7 +6631,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B131" s="3">
         <v>4.4237950000000002E-4</v>
@@ -6246,7 +6643,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B132" s="3">
         <v>-4.0427010000000001E-4</v>
@@ -6258,7 +6655,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B133" s="3">
         <v>-3.9667579999999998E-4</v>
@@ -6270,7 +6667,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B134" s="3">
         <v>-3.8981829999999999E-4</v>
@@ -6282,7 +6679,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B135" s="3">
         <v>3.6384710000000002E-4</v>
@@ -6294,7 +6691,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B136" s="3">
         <v>3.5137660000000002E-4</v>
@@ -6306,7 +6703,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B137" s="3">
         <v>3.4607760000000002E-4</v>
@@ -6318,7 +6715,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B138" s="3">
         <v>-3.3209370000000002E-4</v>
@@ -6330,7 +6727,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B139" s="3">
         <v>-2.7654939999999999E-4</v>
@@ -6342,7 +6739,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B140" s="3">
         <v>2.701906E-4</v>
@@ -6354,7 +6751,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B141" s="3">
         <v>2.5958109999999997E-4</v>
@@ -6366,7 +6763,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B142" s="3">
         <v>-2.5362540000000003E-4</v>
@@ -6378,7 +6775,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B143" s="3">
         <v>2.433127E-4</v>
@@ -6390,7 +6787,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B144" s="3">
         <v>2.4308939999999999E-4</v>
@@ -6402,7 +6799,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B145" s="3">
         <v>-2.2037209999999999E-4</v>
@@ -6414,7 +6811,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B146" s="3">
         <v>-2.125412E-4</v>
@@ -6426,7 +6823,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B147" s="3">
         <v>2.124707E-4</v>
@@ -6438,7 +6835,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B148" s="3">
         <v>1.814924E-4</v>
@@ -6450,7 +6847,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B149" s="3">
         <v>1.7763999999999999E-4</v>
@@ -6462,7 +6859,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B150" s="3">
         <v>-1.552612E-4</v>
@@ -6474,7 +6871,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B151" s="3">
         <v>1.3771930000000001E-4</v>
@@ -6486,7 +6883,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B152" s="3">
         <v>1.347252E-4</v>
@@ -6498,7 +6895,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B153" s="3">
         <v>1.2910849999999999E-4</v>
@@ -6510,7 +6907,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B154" s="3">
         <v>-1.025612E-4</v>
@@ -6522,7 +6919,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B155" s="3">
         <v>-6.9139230000000006E-5</v>
@@ -6534,7 +6931,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B156" s="3">
         <v>-5.1675850000000001E-5</v>
@@ -6546,7 +6943,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B157" s="3">
         <v>3.2323799999999997E-5</v>
@@ -6558,7 +6955,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B158" s="3">
         <v>-2.9813780000000001E-5</v>
@@ -6570,7 +6967,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B159" s="3">
         <v>1.0020199999999999E-5</v>
@@ -6582,7 +6979,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B160" s="3">
         <v>-9.5842949999999997E-8</v>
